--- a/orange.xlsx
+++ b/orange.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czc\Desktop\pydemo\KeyMouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnfiles\Github\KeyMouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A724A94-7B86-4C0B-ACFB-53CF74D7576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5EFCEB-6046-48B0-B15E-ABED922F9912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,50 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>a.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>内容（图片名称.png、输入内容、等待时长/秒）</t>
   </si>
   <si>
     <t>重复次数(-1代表一直重复)</t>
-  </si>
-  <si>
-    <t>win+d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮 7 判断 8 键盘键入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑神话悟空</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欢迎使用橙子草的Python自动化脚本~（https://github.com/Chinzicam/KeyMouse）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win+r</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>欢迎使用橙子草的Python自动化脚本~</t>
   </si>
 </sst>
 </file>
@@ -402,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -417,20 +399,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,10 +428,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -457,10 +439,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -471,53 +453,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
         <v>1</v>
       </c>
     </row>
